--- a/patient_data/patient_9.xlsx
+++ b/patient_data/patient_9.xlsx
@@ -604,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1164,34 +1164,34 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1881,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1958,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
